--- a/FileMapDichVu.xlsx
+++ b/FileMapDichVu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="83">
   <si>
     <t>MaDichVu</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>ECOD</t>
+  </si>
+  <si>
+    <t>EMS Thỏa thuận</t>
   </si>
 </sst>
 </file>
@@ -626,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,6 +1225,22 @@
         <v>81</v>
       </c>
     </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1233,7 +1252,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,17 +1333,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>67</v>
